--- a/sheets/Trace extractions.xlsx
+++ b/sheets/Trace extractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josecorreia/Desktop/tese/automation/saga_estimator/sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josecorreia/Desktop/tese/automation/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B99BD0-4124-7544-B828-F0FA4D7096D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95661B4-EA1F-3C48-909C-E6C8DF221A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extractions" sheetId="1" r:id="rId1"/>
@@ -2235,19 +2235,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -24457,7 +24457,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:100" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41"/>
@@ -24718,12 +24718,12 @@
       </c>
     </row>
     <row r="19" spans="1:100" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="41"/>
@@ -24748,11 +24748,11 @@
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="41"/>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="44" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="41"/>
@@ -24960,7 +24960,7 @@
         <v>36</v>
       </c>
       <c r="K27" s="41"/>
-      <c r="L27" s="40"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="41"/>
     </row>
     <row r="28" spans="1:100" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25014,7 +25014,7 @@
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="45" t="s">
         <v>41</v>
       </c>
       <c r="G31" s="41"/>
@@ -25032,7 +25032,7 @@
       <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="45" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="41"/>
@@ -25062,7 +25062,7 @@
       <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:100" ht="13" x14ac:dyDescent="0.15">
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="45" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="41"/>
@@ -25120,7 +25120,7 @@
       </c>
     </row>
     <row r="41" spans="1:100" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="41"/>
@@ -25695,7 +25695,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="40" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="41"/>
@@ -26295,7 +26295,7 @@
       </c>
     </row>
     <row r="83" spans="1:100" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B83" s="41"/>
@@ -26320,13 +26320,13 @@
       <c r="B87" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="44" t="s">
+      <c r="C87" s="46" t="s">
         <v>80</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
       <c r="F87" s="41"/>
-      <c r="G87" s="40" t="s">
+      <c r="G87" s="44" t="s">
         <v>81</v>
       </c>
       <c r="H87" s="41"/>
@@ -26691,16 +26691,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="J27:K28"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="F30:J30"/>
     <mergeCell ref="F31:J31"/>
@@ -26714,6 +26704,16 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A83:D83"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:CV7 A11">
     <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="W">
@@ -28580,8 +28580,8 @@
   </sheetPr>
   <dimension ref="A1:CV66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28873,11 +28873,11 @@
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="45" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="41"/>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="44" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="41"/>
@@ -29074,7 +29074,7 @@
         <v>36</v>
       </c>
       <c r="K10" s="41"/>
-      <c r="L10" s="40"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -29127,13 +29127,17 @@
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="45" t="s">
         <v>185</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
+      <c r="K14">
+        <f>J23</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
@@ -29143,7 +29147,7 @@
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="45" t="s">
         <v>186</v>
       </c>
       <c r="G15" s="41"/>
@@ -29254,7 +29258,7 @@
       <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="45" t="s">
         <v>188</v>
       </c>
       <c r="G18" s="41"/>
@@ -29943,6 +29947,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J10:K11"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A24:M24"/>
@@ -29952,15 +29965,6 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="J10:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="A8:N8 C12 A14 C14 C16:D16">
     <cfRule type="notContainsText" dxfId="7" priority="1" operator="notContains" text="W">
@@ -30205,13 +30209,13 @@
       <c r="B6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="44" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="41"/>
@@ -31432,7 +31436,7 @@
   </sheetPr>
   <dimension ref="A1:CV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
